--- a/va_facility_data_2025-02-20/Blairsville VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Blairsville%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Blairsville VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Blairsville%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Re2603bd84d1a41efb9c852af6be41fbd"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R51d373ca80a945dab26acea8c47916f3"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R55afe66ece9f4d7488901431ac4561e6"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R3c2b425de43248c3be353cdc86786e9d"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R566882228f1d436197974d290d580762"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rea068d621dff4dacb3e9c1b3fca0839f"/>
   </x:sheets>
 </x:workbook>
 </file>
